--- a/example.xlsx
+++ b/example.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maes\Daten\Dev\FabOS\fabos-slm-resource-registry-init\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="INFO" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="DEVICES" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="INFO" sheetId="1" r:id="rId1"/>
+    <sheet name="DEVICES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -21,146 +25,136 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
-  <si>
-    <t xml:space="preserve">Resource Registry Init</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ein Device wird hinzugefügt, wenn: is_device == yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eine Capability wird hinzugefügt, wenn: DC_&lt;Capability&gt; == yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shell Capability wird nicht hinzugefügt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hostname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wlan0 MAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wlan0 IP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eth0 MAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eth0 IP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eth1 MAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eth1 IP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UUID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC Shell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC_Docker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC_Transferapp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC_Swarm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC_K3S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sotec CloudPlug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">custom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">root</t>
-  </si>
-  <si>
-    <t xml:space="preserve">examplePW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOCP2001-20011111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:1a:f1:10:1a:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b6:b5:cd:fa:7b:6e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.153.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0226a355-3156-43e8-b51e-3b670c6ba7c3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no (python missing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RevPi Connect+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buster (10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oasdasd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RevPi30562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c8:3e:a7:01:51:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.153.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c8:3e:a7:01:51:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7fd248f5-e698-46f1-b30e-1ac568d66c15</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+  <si>
+    <t>Resource Registry Init</t>
+  </si>
+  <si>
+    <t>Ein Device wird hinzugefügt, wenn: is_device == yes</t>
+  </si>
+  <si>
+    <t>Eine Capability wird hinzugefügt, wenn: DC_&lt;Capability&gt; == yes</t>
+  </si>
+  <si>
+    <t>Shell Capability wird nicht hinzugefügt</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>hostname</t>
+  </si>
+  <si>
+    <t>wlan0 MAC</t>
+  </si>
+  <si>
+    <t>wlan0 IP</t>
+  </si>
+  <si>
+    <t>eth0 MAC</t>
+  </si>
+  <si>
+    <t>eth0 IP</t>
+  </si>
+  <si>
+    <t>eth1 MAC</t>
+  </si>
+  <si>
+    <t>eth1 IP</t>
+  </si>
+  <si>
+    <t>is_resource</t>
+  </si>
+  <si>
+    <t>UUID</t>
+  </si>
+  <si>
+    <t>DC_Docker</t>
+  </si>
+  <si>
+    <t>DC_Transferapp</t>
+  </si>
+  <si>
+    <t>DC_Swarm</t>
+  </si>
+  <si>
+    <t>DC_K3S</t>
+  </si>
+  <si>
+    <t>Sotec CloudPlug</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>examplePW</t>
+  </si>
+  <si>
+    <t>SOCP2001-20011111</t>
+  </si>
+  <si>
+    <t>00:1a:f1:10:1a:57</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>b6:b5:cd:fa:7b:6e</t>
+  </si>
+  <si>
+    <t>192.168.153.48</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>0226a355-3156-43e8-b51e-3b670c6ba7c3</t>
+  </si>
+  <si>
+    <t>RevPi Connect+</t>
+  </si>
+  <si>
+    <t>buster (10)</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>oasdasd</t>
+  </si>
+  <si>
+    <t>RevPi30562</t>
+  </si>
+  <si>
+    <t>c8:3e:a7:01:51:52</t>
+  </si>
+  <si>
+    <t>192.168.153.51</t>
+  </si>
+  <si>
+    <t>c8:3e:a7:01:51:53</t>
+  </si>
+  <si>
+    <t>7fd248f5-e698-46f1-b30e-1ac568d66c15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -169,22 +163,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -201,7 +180,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -209,80 +188,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TDEVICES" displayName="TDEVICES" ref="A1:R15" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:R15"/>
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TDEVICES" displayName="TDEVICES" ref="A1:Q15" totalsRowShown="0">
+  <autoFilter ref="A1:Q15"/>
+  <tableColumns count="17">
     <tableColumn id="1" name="Device"/>
     <tableColumn id="2" name="OS"/>
     <tableColumn id="3" name="user"/>
@@ -296,40 +246,296 @@
     <tableColumn id="11" name="eth1 IP"/>
     <tableColumn id="12" name="is_resource"/>
     <tableColumn id="13" name="UUID"/>
-    <tableColumn id="14" name="DC Shell"/>
     <tableColumn id="15" name="DC_Docker"/>
     <tableColumn id="16" name="DC_Transferapp"/>
     <tableColumn id="17" name="DC_Swarm"/>
     <tableColumn id="18" name="DC_K3S"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="76.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="1" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="13" style="3" width="13.57"/>
+    <col min="1" max="1" width="76.88671875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="2" customWidth="1"/>
+    <col min="5" max="8" width="13.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" style="1" customWidth="1"/>
+    <col min="13" max="20" width="13.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -353,7 +559,7 @@
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -377,7 +583,7 @@
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -401,7 +607,7 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -425,7 +631,7 @@
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -448,51 +654,42 @@
       <c r="T5" s="5"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:R16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="16.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="36.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="17.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="12.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="12.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="9.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="9.14"/>
+    <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="36" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.5546875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9.44140625" style="3" customWidth="1"/>
+    <col min="1021" max="1023" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -544,113 +741,104 @@
       <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -668,9 +856,8 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-    </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -688,9 +875,8 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-    </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -708,9 +894,8 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -728,9 +913,8 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-    </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -748,9 +932,8 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-    </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -768,9 +951,8 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-    </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -788,9 +970,8 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-    </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -808,9 +989,8 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-    </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -828,9 +1008,8 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-    </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -848,9 +1027,8 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-    </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -868,9 +1046,8 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-    </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -888,9 +1065,8 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-    </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -904,14 +1080,9 @@
       <c r="K16" s="6"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>

--- a/example.xlsx
+++ b/example.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>Resource Registry Init</t>
   </si>
@@ -148,6 +148,27 @@
   </si>
   <si>
     <t>7fd248f5-e698-46f1-b30e-1ac568d66c15</t>
+  </si>
+  <si>
+    <t>connection-type</t>
+  </si>
+  <si>
+    <t>ssh</t>
+  </si>
+  <si>
+    <t>shh</t>
+  </si>
+  <si>
+    <t>connection-port</t>
+  </si>
+  <si>
+    <t>DC_Shell</t>
+  </si>
+  <si>
+    <t>DC_Dummy</t>
+  </si>
+  <si>
+    <t>DC_Dummy2</t>
   </si>
 </sst>
 </file>
@@ -216,7 +237,98 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -230,9 +342,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TDEVICES" displayName="TDEVICES" ref="A1:Q15" totalsRowShown="0">
-  <autoFilter ref="A1:Q15"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TDEVICES" displayName="TDEVICES" ref="A1:V15" totalsRowShown="0">
+  <autoFilter ref="A1:V15"/>
+  <tableColumns count="22">
     <tableColumn id="1" name="Device"/>
     <tableColumn id="2" name="OS"/>
     <tableColumn id="3" name="user"/>
@@ -246,6 +358,11 @@
     <tableColumn id="11" name="eth1 IP"/>
     <tableColumn id="12" name="is_resource"/>
     <tableColumn id="13" name="UUID"/>
+    <tableColumn id="14" name="connection-type" dataDxfId="4"/>
+    <tableColumn id="19" name="connection-port" dataDxfId="3"/>
+    <tableColumn id="20" name="DC_Dummy" dataDxfId="2"/>
+    <tableColumn id="21" name="DC_Shell" dataDxfId="1"/>
+    <tableColumn id="22" name="DC_Dummy2" dataDxfId="0"/>
     <tableColumn id="15" name="DC_Docker"/>
     <tableColumn id="16" name="DC_Transferapp"/>
     <tableColumn id="17" name="DC_Swarm"/>
@@ -661,10 +778,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,14 +799,19 @@
     <col min="11" max="11" width="14.44140625" style="2" customWidth="1"/>
     <col min="12" max="12" width="12.5546875" style="3" customWidth="1"/>
     <col min="13" max="13" width="36" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="16.5546875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9.44140625" style="3" customWidth="1"/>
-    <col min="1021" max="1023" width="9.109375" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="17.77734375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="36" style="3" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="14.44140625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="16.5546875" style="3" customWidth="1"/>
+    <col min="21" max="21" width="12.109375" style="3" customWidth="1"/>
+    <col min="22" max="22" width="9.44140625" style="3" customWidth="1"/>
+    <col min="1026" max="1028" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -730,19 +852,34 @@
         <v>16</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
@@ -779,19 +916,32 @@
         <v>31</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="O2" s="5">
+        <v>22</v>
+      </c>
+      <c r="P2" s="5"/>
       <c r="Q2" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
@@ -826,19 +976,32 @@
         <v>40</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="O3" s="5">
+        <v>22</v>
+      </c>
+      <c r="P3" s="5"/>
       <c r="Q3" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -856,8 +1019,13 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+    </row>
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -875,8 +1043,13 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -894,8 +1067,13 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -913,8 +1091,13 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -932,8 +1115,13 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -951,8 +1139,13 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -970,8 +1163,13 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -989,8 +1187,13 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-    </row>
-    <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1008,8 +1211,13 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-    </row>
-    <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1027,8 +1235,13 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
-    </row>
-    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1046,8 +1259,13 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-    </row>
-    <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1065,8 +1283,13 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-    </row>
-    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
